--- a/biology/Botanique/Haptanthaceae/Haptanthaceae.xlsx
+++ b/biology/Botanique/Haptanthaceae/Haptanthaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Haptanthaceae est une famille végétale introduite (temporairement) par le Angiosperm Phylogeny Website en attente d'analyses plus précises.
 La famille des Haptanthaceae comprend un seul genre Haptanthus et une seule espèce Haptanthus hazlettii, d'arbres à feuilles persistantes, originaire d'Amérique centrale (Honduras), aux affinités mal connues car la plante n'a pu être retrouvée aisément dans son milieu naturel.
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre Haptanthus du grec απλ / apl, simple,  et -ανθος / -anthos, fleur, signifiant "qui n'a qu'une seule fleur"[1]. En effet les rameaux fertiles de la plante se terminent par une unique fleur « femelle » (carpellée) munie, de part et d'autre, de deux filets rigides portant les fleurs « mâles » (à étamines).
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre Haptanthus du grec απλ / apl, simple,  et -ανθος / -anthos, fleur, signifiant "qui n'a qu'une seule fleur". En effet les rameaux fertiles de la plante se terminent par une unique fleur « femelle » (carpellée) munie, de part et d'autre, de deux filets rigides portant les fleurs « mâles » (à étamines).
 </t>
         </is>
       </c>
@@ -543,10 +557,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sa validité par la classification APG III dans l'ordre des Buxales a été remise en question en mars 2011[2]. 
-Dans la classification phylogénétique APG IV (2016)[3], ce taxon est considéré comme un groupe frère du genre Buxus et il fut intégré à la famille des Buxaceae en 2014[2], la famille des Haptanthaceae étant en conséquence supprimée.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sa validité par la classification APG III dans l'ordre des Buxales a été remise en question en mars 2011. 
+Dans la classification phylogénétique APG IV (2016), ce taxon est considéré comme un groupe frère du genre Buxus et il fut intégré à la famille des Buxaceae en 2014, la famille des Haptanthaceae étant en conséquence supprimée.
 </t>
         </is>
       </c>
@@ -575,12 +591,14 @@
           <t>Liste des genres et espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Angiosperm Phylogeny Website                        (27 avr. 2010)[4] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Angiosperm Phylogeny Website                        (27 avr. 2010) :
 genre Haptanthus
 Haptanthus hazlettii
-Selon GRIN            (27 avr. 2010)[5] :
+Selon GRIN            (27 avr. 2010) :
 genre Haptanthus Goldberg &amp; C. Nelson</t>
         </is>
       </c>
